--- a/biology/Médecine/Charles_Everett_Graham/Charles_Everett_Graham.xlsx
+++ b/biology/Médecine/Charles_Everett_Graham/Charles_Everett_Graham.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Charles Everett Graham était un médecin et homme politique au Québec. Il a été élu maire de la ville de Hull à deux reprises, soit de 1878-1879 et en 1895-1896[1].
+Charles Everett Graham était un médecin et homme politique au Québec. Il a été élu maire de la ville de Hull à deux reprises, soit de 1878-1879 et en 1895-1896.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire de Kingston en Ontario, il est le fils de Duncan Graham et d'Anna Maria Everett. Au début de l'année 1845, Charles déménagea à Ottawa avec sa famille. Graham partie étudié la médecine à l'Université McGill à Montréal. Une fois diplômé, il revient travaillé dans la capitale comme assistant d'un médecin d'Ottawa jusqu'en 1866, année où il ouvre son propre cabinet à Hull. Charles épousa Florence Mildred Wright le 16 juin 1868 à Hull et eut deux fils et deux filles. Charles Everett Graham meurt le 13 janvier 1921 à Hull à l'âge de 76 ans.
 </t>
